--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2566234.564063581</v>
+        <v>2650081.38710164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903708</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768291</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6358470.917651874</v>
+        <v>6548622.894915078</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -668,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>93.89816732209943</v>
       </c>
       <c r="G2" t="n">
-        <v>66.61963223510143</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -792,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531638</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>98.41262563052176</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>33.75525064732307</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -883,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>302.3398778399651</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -905,16 +907,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>398.6248860420494</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>160.516329833848</v>
       </c>
       <c r="V7" t="n">
-        <v>161.2645132830804</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1120,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>13.10292942272131</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>147.4980353662276</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -1300,13 +1302,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>126.2672191006956</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.2279701699385</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1433,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.9633209412764</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>150.2762836600699</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1540,7 +1542,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>56.01547359377095</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>352.0529932496993</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>239.3545264587164</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.7165542762732</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>29.69481585013886</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>363.9585094926619</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>91.86342916663969</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>73.40786250209901</v>
       </c>
       <c r="E19" t="n">
-        <v>51.2145330159083</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>187.6971066458113</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2239,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>139.6176823666443</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>261.952250356226</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2369,10 +2371,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2381,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>159.4146726109273</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.8143727276015</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2560,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2621,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>354.8624710341901</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>77.72590661309935</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>42.43741174507654</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>35.6930965424892</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -3004,16 +3006,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>109.4349500296141</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>228.8258688538636</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>182.1412945836354</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.56037376334584</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3250,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>59.82422708687632</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>88.08110241150609</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3329,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3424,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>4.153719494476654</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3433,7 +3435,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -3442,7 +3444,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>93.87738435325643</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>142.535930338006</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.2207099027149</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3752,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3797,7 +3799,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>92.01455830147054</v>
+        <v>123.2715627317515</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3946,19 +3948,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>74.96543686894663</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>65.74952133088063</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3986,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>219.2279701699385</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.6942298771793</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>80.26262094990491</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.8955794447088</v>
+        <v>1681.136832804107</v>
       </c>
       <c r="C2" t="n">
-        <v>540.8113927983829</v>
+        <v>1271.012242117377</v>
       </c>
       <c r="D2" t="n">
-        <v>136.3474628914435</v>
+        <v>866.5483122104374</v>
       </c>
       <c r="E2" t="n">
-        <v>126.0476514487442</v>
+        <v>856.2485007677382</v>
       </c>
       <c r="F2" t="n">
-        <v>109.0576434428358</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4328,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4364,16 +4366,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1354.656425951752</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>954.0130281207041</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.0763550687942</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
+        <v>1207.22713412386</v>
+      </c>
+      <c r="O3" t="n">
         <v>1541.851827451147</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1040.344357017661</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="C4" t="n">
-        <v>1040.344357017661</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="D4" t="n">
-        <v>1040.344357017661</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="E4" t="n">
-        <v>1040.344357017661</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="F4" t="n">
-        <v>875.7132311282519</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="G4" t="n">
-        <v>708.4628400537953</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I4" t="n">
         <v>558.8553848592519</v>
@@ -4510,28 +4512,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1988.84758892402</v>
       </c>
       <c r="T4" t="n">
-        <v>1816.589795035412</v>
+        <v>1749.298849900722</v>
       </c>
       <c r="U4" t="n">
-        <v>1782.493582260338</v>
+        <v>1466.500702446846</v>
       </c>
       <c r="V4" t="n">
-        <v>1782.493582260338</v>
+        <v>1192.614957386368</v>
       </c>
       <c r="W4" t="n">
-        <v>1503.423917769212</v>
+        <v>913.5452928952423</v>
       </c>
       <c r="X4" t="n">
-        <v>1265.080055628896</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="Y4" t="n">
-        <v>1040.344357017661</v>
+        <v>675.2014307549257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C5" t="n">
-        <v>1776.679689856052</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D5" t="n">
-        <v>1372.215759949112</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
         <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>52.35970185319746</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>508.1659581184962</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.5101213811486</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C7" t="n">
-        <v>368.5101213811486</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0154767040586</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E7" t="n">
-        <v>209.0154767040586</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1323.753557022975</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9236480125909</v>
+        <v>1049.867811962497</v>
       </c>
       <c r="W7" t="n">
-        <v>606.8539835214652</v>
+        <v>770.7981474713711</v>
       </c>
       <c r="X7" t="n">
-        <v>368.5101213811486</v>
+        <v>532.4542853310545</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.5101213811486</v>
+        <v>307.7185867198193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.329212244076</v>
+        <v>2137.925013712426</v>
       </c>
       <c r="C8" t="n">
-        <v>610.2046215573456</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>609.7810956908102</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>195.4408802077069</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.193789739612</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.193789739612</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>1430.550391908565</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1430.550391908565</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960218</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922354</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922354</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922354</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585607</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>1268.263812524886</v>
+        <v>1802.652898273553</v>
       </c>
       <c r="O9" t="n">
-        <v>1785.106747191211</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1526093285881</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>606.0592368903046</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>446.5645922132147</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>285.6537770815341</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>285.6537770815341</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>777.1526093285881</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>777.1526093285881</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.1526093285881</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2110.805353306473</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C11" t="n">
-        <v>1700.680762619743</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D11" t="n">
-        <v>1296.216832712804</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E11" t="n">
-        <v>881.8766172297003</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>868.2330456441175</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>3659.122578160285</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U11" t="n">
-        <v>3402.062086419795</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V11" t="n">
-        <v>3052.224531756276</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W11" t="n">
-        <v>2668.464230891444</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X11" t="n">
-        <v>2668.464230891444</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y11" t="n">
-        <v>2521.026532970963</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>195.626113964111</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>856.7142858833993</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>856.7142858833993</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>856.7142858833993</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1145.922776849439</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="C13" t="n">
-        <v>994.1285509301767</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D13" t="n">
-        <v>834.6339062530867</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E13" t="n">
-        <v>673.7230911214062</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F13" t="n">
-        <v>509.0919652319975</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W13" t="n">
-        <v>1333.622483243484</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.622483243484</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="Y13" t="n">
-        <v>1333.622483243484</v>
+        <v>1015.327156917303</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2376.347754245775</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1966.223163559045</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1561.759233652106</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.419018169002</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>726.3886061226899</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>317.6603220155221</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>868.2330456441175</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>3794.403653366184</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U14" t="n">
-        <v>3537.343161625694</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V14" t="n">
-        <v>3187.505606962175</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W14" t="n">
-        <v>3187.505606962175</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X14" t="n">
-        <v>3187.505606962175</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y14" t="n">
-        <v>2786.568933910265</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K15" t="n">
-        <v>531.6943293326224</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="L15" t="n">
-        <v>1192.782501251911</v>
+        <v>3115.250713290679</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.782501251911</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.782501251911</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.111857066664</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P15" t="n">
-        <v>2092.817749555194</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2092.817749555194</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165.22192336846</v>
+        <v>290.4888522500681</v>
       </c>
       <c r="C16" t="n">
-        <v>994.1285509301767</v>
+        <v>290.4888522500681</v>
       </c>
       <c r="D16" t="n">
-        <v>834.6339062530867</v>
+        <v>290.4888522500681</v>
       </c>
       <c r="E16" t="n">
-        <v>673.7230911214062</v>
+        <v>290.4888522500681</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>290.4888522500681</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>123.2384611756115</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>123.2384611756115</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U16" t="n">
-        <v>1333.622483243484</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V16" t="n">
-        <v>1333.622483243484</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.622483243484</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.622483243484</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="Y16" t="n">
-        <v>1333.622483243484</v>
+        <v>290.4888522500681</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.237727455811</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4569.393541938574</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4347.187057885433</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>393.5382013723083</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.515282066875</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.9039397142094</v>
+        <v>936.3214442457152</v>
       </c>
       <c r="C19" t="n">
-        <v>742.8105672759259</v>
+        <v>765.2280718074317</v>
       </c>
       <c r="D19" t="n">
-        <v>742.8105672759259</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E19" t="n">
         <v>691.0787157447054</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>913.9039397142094</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>913.9039397142094</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X19" t="n">
-        <v>913.9039397142094</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y19" t="n">
-        <v>913.9039397142094</v>
+        <v>1124.02115063976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E20" t="n">
         <v>1320.262653899312</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5938,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>959.2677458477899</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>680.1980813566643</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>441.8542192163477</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>441.8542192163477</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3282.393443104833</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C25" t="n">
-        <v>3282.393443104833</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D25" t="n">
-        <v>3282.393443104833</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1461.617672482254</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1461.617672482254</v>
       </c>
       <c r="U25" t="n">
-        <v>4379.386737077264</v>
+        <v>1178.819525028378</v>
       </c>
       <c r="V25" t="n">
-        <v>4105.500992016786</v>
+        <v>904.9337799678997</v>
       </c>
       <c r="W25" t="n">
-        <v>3826.43132752566</v>
+        <v>904.9337799678997</v>
       </c>
       <c r="X25" t="n">
-        <v>3588.087465385343</v>
+        <v>666.589917827583</v>
       </c>
       <c r="Y25" t="n">
-        <v>3470.093149498877</v>
+        <v>441.8542192163477</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6269,7 +6271,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6317,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3211.297004691198</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3211.297004691198</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3211.297004691198</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3211.297004691198</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T28" t="n">
-        <v>1579.776521841699</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U28" t="n">
-        <v>1296.978374387823</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V28" t="n">
-        <v>1023.092629327345</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="W28" t="n">
-        <v>744.0229648362191</v>
+        <v>3674.37656544275</v>
       </c>
       <c r="X28" t="n">
-        <v>505.6791026959025</v>
+        <v>3436.032703302433</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.9434040846672</v>
+        <v>3211.297004691198</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1008.590066584938</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>587.5596545386256</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>178.8313704314578</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6491,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.7454763291312</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="C31" t="n">
-        <v>518.69184345793</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="D31" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="E31" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="F31" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>4040.431305497884</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>3766.545560437406</v>
       </c>
       <c r="W31" t="n">
-        <v>554.7454763291312</v>
+        <v>3487.47589594628</v>
       </c>
       <c r="X31" t="n">
-        <v>554.7454763291312</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="Y31" t="n">
-        <v>554.7454763291312</v>
+        <v>3249.132033805963</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2359.298219196301</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.173628509571</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D32" t="n">
-        <v>1544.709698602632</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E32" t="n">
-        <v>1130.369483119528</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V32" t="n">
-        <v>3954.85977060858</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W32" t="n">
-        <v>3571.099469743748</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X32" t="n">
-        <v>3170.456071912701</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2769.519398860791</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>735.0499203580262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1578.027001052593</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.3347793378432</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C34" t="n">
-        <v>536.3347793378432</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>376.8401346607533</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V34" t="n">
-        <v>1065.958701797119</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W34" t="n">
-        <v>786.8890373059935</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X34" t="n">
-        <v>786.8890373059935</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.1533386947582</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>464.5807072718708</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>153.6722098995888</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4573.214074014467</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3890.591016140781</v>
+        <v>1161.057142856951</v>
       </c>
       <c r="C37" t="n">
-        <v>3886.395339883734</v>
+        <v>989.9637704186671</v>
       </c>
       <c r="D37" t="n">
-        <v>3726.900695206644</v>
+        <v>830.469125741577</v>
       </c>
       <c r="E37" t="n">
-        <v>3565.989880074963</v>
+        <v>669.5583106098966</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>504.9271847204878</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>337.6767936460312</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>188.0693384514879</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>4303.026421146061</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W37" t="n">
-        <v>4303.026421146061</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X37" t="n">
-        <v>4303.026421146061</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y37" t="n">
-        <v>4078.290722534825</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,22 +7201,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
         <v>2873.060806957647</v>
@@ -7251,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.13812587521</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="N39" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1914.095216421104</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3471.12975142303</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="C40" t="n">
-        <v>3300.036378984746</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.036378984746</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E40" t="n">
-        <v>3300.036378984746</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F40" t="n">
-        <v>3300.036378984746</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H40" t="n">
         <v>3132.785987910289</v>
@@ -7357,25 +7359,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T40" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U40" t="n">
-        <v>4192.994968957174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V40" t="n">
-        <v>3919.109223896696</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W40" t="n">
-        <v>3640.03955940557</v>
+        <v>4518.209197321033</v>
       </c>
       <c r="X40" t="n">
-        <v>3640.03955940557</v>
+        <v>4518.209197321033</v>
       </c>
       <c r="Y40" t="n">
-        <v>3471.12975142303</v>
+        <v>4293.473498709797</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1626.631127875961</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1626.631127875961</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1222.167197969021</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>807.8269824859181</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>386.7965704396057</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>3572.197169313043</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>3315.136677572553</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3222.192679288239</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>2838.432378423407</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2437.78898059236</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2036.85230754045</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>736.976244986612</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>1579.953325681179</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.377268917824</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3354.338607046471</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C43" t="n">
-        <v>3183.245234608188</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.750589931098</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>2862.839774799417</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>2698.208648910008</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>2530.958257835552</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>2381.350802641008</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>2265.004756745334</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>2279.087306150545</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.639633872783</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>2693.536734152843</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2982.800790593336</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>3263.639572987587</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>3523.200183314061</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>3728.875623563673</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>3794.403653366184</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>3709.130935041584</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>3633.408271537597</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>3633.408271537597</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>3633.408271537597</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="V43" t="n">
-        <v>3633.408271537597</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="W43" t="n">
-        <v>3354.338607046471</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="X43" t="n">
-        <v>3354.338607046471</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y43" t="n">
-        <v>3354.338607046471</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1713.545093251264</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C44" t="n">
-        <v>1303.420502564534</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D44" t="n">
-        <v>898.9565726575947</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E44" t="n">
-        <v>484.6163571744915</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F44" t="n">
-        <v>484.6163571744915</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3224.690309757467</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>3572.197169313043</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U44" t="n">
-        <v>3315.136677572553</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V44" t="n">
-        <v>2965.299122909033</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W44" t="n">
-        <v>2581.538822044202</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.895424213154</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y44" t="n">
-        <v>1779.958751161244</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>515.2025668976814</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.860659009299</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.817749555194</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1165.22192336846</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C46" t="n">
-        <v>994.1285509301767</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D46" t="n">
-        <v>834.6339062530867</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E46" t="n">
-        <v>673.7230911214062</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F46" t="n">
-        <v>509.0919652319975</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G46" t="n">
-        <v>341.8415741575409</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.488822234298</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.488822234298</v>
+        <v>4495.838811711686</v>
       </c>
       <c r="W46" t="n">
-        <v>1322.488822234298</v>
+        <v>4216.76914722056</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.488822234298</v>
+        <v>3978.425285080243</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.488822234298</v>
+        <v>3753.689586469008</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>337.5073157537831</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
@@ -8064,16 +8066,16 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>68.26591628750424</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>395.7562197346339</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>62.07087134908629</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>359.4030239885898</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8316,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>535.0653799235644</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>354.5090417861859</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8538,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629447</v>
       </c>
       <c r="P9" t="n">
-        <v>330.6111652313504</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,10 +8695,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>738.2239459341513</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8766,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7732988419764</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
@@ -8784,10 +8786,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>89.84900189613728</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8930,10 +8932,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>738.2239459341513</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -9009,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>100.3051989065467</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>399.498303055306</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>359.4423053075011</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
@@ -9255,7 +9257,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9264,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9963,10 +9965,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10194,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>675.0496721821739</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10431,19 +10433,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>704.403637616307</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>125.2740076530061</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>391.2596817961424</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,10 +11150,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0963663600579</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11309,13 +11311,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>465.4642484929489</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>501.3162977084758</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0.756449042671278</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>250.9639853801144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>19.10615505383075</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>179.9449499251425</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>54.06597461814522</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>68.44488593984278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.10615505383078</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.48776958657824</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>36.46078111520814</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>42.06483528720045</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>84.49183572822007</v>
       </c>
       <c r="E19" t="n">
-        <v>108.0871739644554</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23956,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>131.529205243229</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24379,7 +24381,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,7 +24414,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>25.11317782796158</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.6739688975214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>42.06483528720071</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24610,7 +24612,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>85.25890801741529</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24649,16 +24651,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24731,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>133.6893421714115</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24853,7 +24855,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>170.535215949723</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>37.84312462897432</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>160.2623355667581</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25087,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>25.66401796922125</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>45.84716204233405</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>165.228719219424</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>21.30520108346067</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="39">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25597,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.7430375082084</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.26763172240803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>254.3246208154136</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>109.5624135699422</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>181.0244246222282</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>340.3694465369639</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.756449042671278</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.12847945292467</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26077,19 +26079,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>190.8842666599683</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>612321.7167319894</v>
+        <v>616680.3782578284</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>486877.1703405519</v>
+        <v>550577.2807468425</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>486877.1703405519</v>
+        <v>550577.2807468426</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550577.2807468424</v>
+        <v>550577.2807468426</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550577.2807468425</v>
+        <v>550577.2807468426</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486877.1703405519</v>
+        <v>550577.2807468425</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>486877.1703405519</v>
+        <v>550577.2807468426</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537511.8970071079</v>
+        <v>537511.8970071076</v>
       </c>
       <c r="C2" t="n">
         <v>537511.8970071077</v>
       </c>
       <c r="D2" t="n">
-        <v>537511.8970071079</v>
+        <v>537511.8970071077</v>
       </c>
       <c r="E2" t="n">
-        <v>422631.32634713</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="F2" t="n">
-        <v>422631.3263471303</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="G2" t="n">
         <v>477920.3014329047</v>
@@ -26332,28 +26334,28 @@
         <v>477920.3014329047</v>
       </c>
       <c r="I2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329048</v>
       </c>
       <c r="J2" t="n">
         <v>477920.3014329047</v>
       </c>
       <c r="K2" t="n">
-        <v>477920.301432905</v>
+        <v>477920.3014329049</v>
       </c>
       <c r="L2" t="n">
         <v>477920.3014329047</v>
       </c>
       <c r="M2" t="n">
+        <v>477920.3014329046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>477920.3014329046</v>
+      </c>
+      <c r="O2" t="n">
         <v>477920.3014329048</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>477920.3014329047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>422631.3263471304</v>
-      </c>
-      <c r="P2" t="n">
-        <v>422631.3263471301</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>164775.2337200961</v>
+        <v>71864.46850972368</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132412.0883154001</v>
+        <v>132412.0883153999</v>
       </c>
       <c r="C6" t="n">
-        <v>307367.5982085141</v>
+        <v>307367.5982085142</v>
       </c>
       <c r="D6" t="n">
-        <v>307367.5982085142</v>
+        <v>194818.8882321153</v>
       </c>
       <c r="E6" t="n">
-        <v>223948.3581421181</v>
+        <v>364620.7632700332</v>
       </c>
       <c r="F6" t="n">
-        <v>351303.024931869</v>
+        <v>391589.7174509674</v>
       </c>
       <c r="G6" t="n">
-        <v>332128.2627650057</v>
+        <v>391589.7174509674</v>
       </c>
       <c r="H6" t="n">
+        <v>391589.7174509674</v>
+      </c>
+      <c r="I6" t="n">
         <v>391589.7174509675</v>
-      </c>
-      <c r="I6" t="n">
-        <v>391589.7174509674</v>
       </c>
       <c r="J6" t="n">
         <v>254994.9166450724</v>
       </c>
       <c r="K6" t="n">
-        <v>391589.7174509677</v>
+        <v>391589.7174509676</v>
       </c>
       <c r="L6" t="n">
+        <v>251590.4065862147</v>
+      </c>
+      <c r="M6" t="n">
+        <v>369080.4526769199</v>
+      </c>
+      <c r="N6" t="n">
+        <v>391589.7174509673</v>
+      </c>
+      <c r="O6" t="n">
+        <v>391589.7174509676</v>
+      </c>
+      <c r="P6" t="n">
         <v>391589.7174509674</v>
-      </c>
-      <c r="M6" t="n">
-        <v>285294.9054330928</v>
-      </c>
-      <c r="N6" t="n">
-        <v>391589.7174509674</v>
-      </c>
-      <c r="O6" t="n">
-        <v>351303.0249318691</v>
-      </c>
-      <c r="P6" t="n">
-        <v>351303.0249318688</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>322.9219406037499</v>
       </c>
       <c r="G2" t="n">
-        <v>338.0213690309947</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27436,13 +27438,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>86.11522480836707</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>246.214915332014</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.19522188379989</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>103.6834669398975</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27786,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>119.4538361454891</v>
       </c>
       <c r="V7" t="n">
-        <v>109.8823743267928</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>393.0160384451232</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>269.3220725596217</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.31066806301637</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28074,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
@@ -34784,16 +34786,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>10.70163254908682</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>338.0047407346339</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>135.5987266329976</v>
-      </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>10.70163254908628</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>306.2096305948398</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>441.8756042977812</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>264.4752373870339</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629447</v>
       </c>
       <c r="P9" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,10 +35415,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>644.9337214771058</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>120.947516057361</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
@@ -35504,10 +35506,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,10 +35652,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>644.9337214771058</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35729,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>44.19067509569769</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>341.746824055306</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>303.3277814966521</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
@@ -35975,7 +35977,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36683,10 +36685,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>617.2981931821739</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>69.15948384215704</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>297.6103185152583</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>547.902972966308</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38029,13 +38031,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>372.2744728671658</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>443.7520139700584</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2650081.38710164</v>
+        <v>2648768.741646061</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>81.9722059407362</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>93.89816732209943</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>98.41262563052176</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,13 +876,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>106.6302643053142</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>58.8104846988039</v>
       </c>
       <c r="F5" t="n">
-        <v>398.6248860420494</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>89.00289165510048</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>160.516329833848</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.10292942272131</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>13.00730633473924</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.2279701699385</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1536,16 +1536,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1578,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>56.01547359377095</v>
+        <v>61.78572556472148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>352.0529932496993</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>90.67934540670926</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.69481585013886</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.86342916663969</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>36.85401924359261</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>73.40786250209901</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>187.6971066458113</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2241,13 +2241,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>195.6344337210735</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>139.6176823666443</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>261.952250356226</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2371,19 +2371,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>79.29757956459487</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>159.4146726109273</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2614,16 +2614,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.8624710341901</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>77.72590661309935</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>139.9553752789649</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>269.0118831534991</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>60.15088299812822</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>109.4349500296141</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>182.1412945836354</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>41.24458363092522</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.08110241150609</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>173.5693474676043</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3426,10 +3426,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3438,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.87738435325643</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>90.67934540670926</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>269.0118831534991</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3556,7 +3556,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>142.535930338006</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>212.5950555860418</v>
       </c>
     </row>
     <row r="41">
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>123.2715627317515</v>
+        <v>209.3277174905208</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>28.06720514715285</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>98.9457413571089</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.2279701699385</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>342.5709892345915</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>80.26262094990491</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>156.3238539667547</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.136832804107</v>
+        <v>970.7079878930531</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.012242117377</v>
+        <v>560.5833972063232</v>
       </c>
       <c r="D2" t="n">
-        <v>866.5483122104374</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>856.2485007677382</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4333,49 +4333,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1380.929167557543</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.22713412386</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
         <v>1541.851827451147</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2014307549257</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2014307549257</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2014307549257</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1988.84758892402</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1749.298849900722</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1466.500702446846</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.614957386368</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>913.5452928952423</v>
+        <v>498.0829448374625</v>
       </c>
       <c r="X4" t="n">
-        <v>675.2014307549257</v>
+        <v>390.375607155327</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.2014307549257</v>
+        <v>390.375607155327</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>526.6154762691361</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>520.5312896228103</v>
       </c>
       <c r="D5" t="n">
-        <v>863.4445812219433</v>
+        <v>520.1077637562748</v>
       </c>
       <c r="E5" t="n">
-        <v>449.10436573884</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>936.8366559336256</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>52.35970185319746</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184962</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784821</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1541.851827451147</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>963.8485448562819</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F7" t="n">
         <v>307.7185867198193</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1323.753557022975</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1049.867811962497</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>770.7981474713711</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>532.4542853310545</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>1053.75045561901</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2137.925013712426</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1727.800423025697</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>908.9962776356539</v>
       </c>
       <c r="F8" t="n">
         <v>892.0062696297455</v>
@@ -4816,13 +4816,13 @@
         <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>2866.268234019018</v>
+        <v>2806.93771223689</v>
       </c>
       <c r="O8" t="n">
-        <v>3509.899090436123</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>4039.055788355275</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
         <v>4300.886273368438</v>
@@ -4883,22 +4883,22 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619355</v>
+        <v>278.830583030002</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.652898273553</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1175.351575768505</v>
+        <v>257.1110979056523</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214513</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>351.971226557586</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4995,19 +4995,19 @@
         <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>1460.845774602852</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.416622088219</v>
+        <v>1186.960029542374</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.416622088219</v>
+        <v>907.8903650512486</v>
       </c>
       <c r="X10" t="n">
-        <v>1587.786980773785</v>
+        <v>669.546502910932</v>
       </c>
       <c r="Y10" t="n">
-        <v>1363.05128216255</v>
+        <v>444.8108042996967</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2238.282892603803</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C11" t="n">
-        <v>1828.158301917073</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D11" t="n">
-        <v>1423.694372010133</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E11" t="n">
-        <v>1009.35415652703</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F11" t="n">
-        <v>588.3237444807176</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G11" t="n">
-        <v>179.5954603735497</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5071,22 +5071,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4440.742490420091</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4183.681998679601</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.844444016082</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>3450.08414315125</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X11" t="n">
-        <v>3049.440745320202</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2648.504072268292</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1402.950983437843</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.950983437843</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O12" t="n">
-        <v>2106.908073983737</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P12" t="n">
-        <v>2106.908073983737</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.327156917303</v>
+        <v>540.1777607016702</v>
       </c>
       <c r="C13" t="n">
-        <v>844.2337844790193</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="D13" t="n">
-        <v>684.7391398019292</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8283246702488</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F13" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H13" t="n">
         <v>209.5897435862967</v>
@@ -5226,25 +5226,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1350.978107866783</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U13" t="n">
-        <v>1350.978107866783</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.978107866783</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W13" t="n">
-        <v>1071.908443375657</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="X13" t="n">
-        <v>1015.327156917303</v>
+        <v>952.6131657069499</v>
       </c>
       <c r="Y13" t="n">
-        <v>1015.327156917303</v>
+        <v>727.8774670957146</v>
       </c>
     </row>
     <row r="14">
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T14" t="n">
-        <v>4439.978400477999</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U14" t="n">
-        <v>4439.978400477999</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V14" t="n">
-        <v>4090.140845814479</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W14" t="n">
-        <v>3706.380544949648</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X14" t="n">
-        <v>3305.7371471186</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y14" t="n">
-        <v>2904.80047406669</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>3115.250713290679</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>290.4888522500681</v>
+        <v>510.3809371023275</v>
       </c>
       <c r="C16" t="n">
-        <v>290.4888522500681</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D16" t="n">
-        <v>290.4888522500681</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E16" t="n">
-        <v>290.4888522500681</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F16" t="n">
-        <v>290.4888522500681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>123.2384611756115</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>123.2384611756115</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>1068.179960412907</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V16" t="n">
-        <v>794.2942153524291</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W16" t="n">
-        <v>515.2245508613034</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="X16" t="n">
-        <v>515.2245508613034</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="Y16" t="n">
-        <v>290.4888522500681</v>
+        <v>698.0806434963719</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2144.727460069145</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4569.393541938574</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4347.187057885433</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4090.126566144943</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3740.289011481424</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3356.528710616592</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2955.885312785545</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554.948639733635</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>936.3214442457152</v>
+        <v>708.8443222307174</v>
       </c>
       <c r="C19" t="n">
-        <v>765.2280718074317</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="D19" t="n">
-        <v>691.0787157447054</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>1348.756849250995</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.756849250995</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="X19" t="n">
-        <v>1348.756849250995</v>
+        <v>746.0706042949523</v>
       </c>
       <c r="Y19" t="n">
-        <v>1124.02115063976</v>
+        <v>746.0706042949523</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2324.444211508952</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1914.319620822223</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1509.855690915283</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3536.245462056399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3135.602064225352</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.665391173442</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>254.1545128223033</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>1238.640287079188</v>
       </c>
       <c r="U22" t="n">
-        <v>1100.295707834299</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="V22" t="n">
-        <v>959.2677458477899</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W22" t="n">
-        <v>680.1980813566643</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X22" t="n">
-        <v>441.8542192163477</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.8542192163477</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2092.756534600129</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>254.1545128223033</v>
+        <v>654.831235065794</v>
       </c>
       <c r="C25" t="n">
-        <v>254.1545128223033</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D25" t="n">
-        <v>254.1545128223033</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1461.617672482254</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1461.617672482254</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1178.819525028378</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>904.9337799678997</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W25" t="n">
-        <v>904.9337799678997</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="X25" t="n">
-        <v>666.589917827583</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.8542192163477</v>
+        <v>654.831235065794</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2144.727460069145</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
         <v>1734.602869382415</v>
@@ -6262,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2554.948639733635</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3211.297004691198</v>
+        <v>545.3142419139889</v>
       </c>
       <c r="C28" t="n">
-        <v>3211.297004691198</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="D28" t="n">
-        <v>3211.297004691198</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="E28" t="n">
-        <v>3211.297004691198</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>4236.244377387751</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U28" t="n">
-        <v>3953.446229933875</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V28" t="n">
-        <v>3953.446229933875</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.37656544275</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X28" t="n">
-        <v>3436.032703302433</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="Y28" t="n">
-        <v>3211.297004691198</v>
+        <v>733.0139483080333</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C29" t="n">
         <v>2052.715036606428</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4408.238733368956</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3249.132033805963</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="C31" t="n">
-        <v>3249.132033805963</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="D31" t="n">
-        <v>3249.132033805963</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="E31" t="n">
-        <v>3249.132033805963</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="F31" t="n">
-        <v>3249.132033805963</v>
+        <v>470.8600116344998</v>
       </c>
       <c r="G31" t="n">
-        <v>3249.132033805963</v>
+        <v>303.6096205600431</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>154.0021653654998</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>4040.431305497884</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V31" t="n">
-        <v>3766.545560437406</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W31" t="n">
-        <v>3487.47589594628</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X31" t="n">
-        <v>3249.132033805963</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="Y31" t="n">
-        <v>3249.132033805963</v>
+        <v>658.5597180285441</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2140.463105868917</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.338515182187</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.874585275247</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>911.5343697921442</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4342.922703685204</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4085.862211944715</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3736.024657281195</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3352.264356416364</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>2951.620958585316</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2550.684285533406</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1580.98139872468</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1341.432659701382</v>
       </c>
       <c r="U34" t="n">
-        <v>3868.173511609275</v>
+        <v>1058.634512247506</v>
       </c>
       <c r="V34" t="n">
-        <v>3594.287766548796</v>
+        <v>784.7487671870281</v>
       </c>
       <c r="W34" t="n">
-        <v>3315.218102057671</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="X34" t="n">
-        <v>3132.785987910289</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y34" t="n">
-        <v>3132.785987910289</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4573.214074014467</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4351.007589961326</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4093.947098220835</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>3744.109543557316</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W35" t="n">
-        <v>3360.349242692484</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1161.057142856951</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="C37" t="n">
-        <v>989.9637704186671</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D37" t="n">
-        <v>830.469125741577</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>669.5583106098966</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>504.9271847204878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>337.6767936460312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>188.0693384514879</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1105.10678877747</v>
       </c>
       <c r="V37" t="n">
-        <v>1348.756849250995</v>
+        <v>831.2210437169917</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.756849250995</v>
+        <v>831.2210437169917</v>
       </c>
       <c r="X37" t="n">
-        <v>1348.756849250995</v>
+        <v>831.2210437169917</v>
       </c>
       <c r="Y37" t="n">
-        <v>1348.756849250995</v>
+        <v>606.4853451057564</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C38" t="n">
         <v>2052.715036606428</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L39" t="n">
-        <v>354.5244442569915</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>354.5244442569915</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
         <v>1228.182536368609</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4105.773792315753</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="C40" t="n">
-        <v>3934.680419877469</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.185775200379</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>3614.274960068698</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>3449.64383417929</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W40" t="n">
-        <v>4518.209197321033</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X40" t="n">
-        <v>4518.209197321033</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y40" t="n">
-        <v>4293.473498709797</v>
+        <v>607.6884398362138</v>
       </c>
     </row>
     <row r="41">
@@ -7438,13 +7438,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V41" t="n">
         <v>4058.401178705436</v>
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N42" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.484175553476</v>
+        <v>448.3394457120207</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>448.3394457120207</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>288.8448010349308</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>288.8448010349308</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>288.8448010349308</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>121.5944099604742</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>121.5944099604742</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>1011.484175553476</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.484175553476</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W43" t="n">
-        <v>1011.484175553476</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X43" t="n">
-        <v>1011.484175553476</v>
+        <v>636.0391521060651</v>
       </c>
       <c r="Y43" t="n">
-        <v>1011.484175553476</v>
+        <v>636.0391521060651</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7678,22 +7678,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4440.742490420091</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4183.681998679601</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V44" t="n">
-        <v>3833.844444016082</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W44" t="n">
-        <v>3450.08414315125</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X44" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3565.989880074963</v>
+        <v>540.1777607016702</v>
       </c>
       <c r="C46" t="n">
-        <v>3565.989880074963</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="D46" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E46" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>4576.912166206539</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>4576.912166206539</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V46" t="n">
-        <v>4495.838811711686</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W46" t="n">
-        <v>4216.76914722056</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="X46" t="n">
-        <v>3978.425285080243</v>
+        <v>764.9134593129055</v>
       </c>
       <c r="Y46" t="n">
-        <v>3753.689586469008</v>
+        <v>540.1777607016702</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7990,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>66.81615635993558</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7562197346339</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832877</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8236,10 +8236,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>62.07087134908629</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>528.0883472030758</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>793.7713764702452</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>354.5090417861859</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,16 +8540,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>647.1462774881361</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629447</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8768,16 +8768,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,10 +8786,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>205.4824228069005</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.84900189613728</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>100.3051989065467</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10843,10 +10843,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>125.2740076530061</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,13 +11390,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>234.5959412371211</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0.756449042671278</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>179.9449499251425</v>
+        <v>174.174697954192</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.06597461814522</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>78.70309330719139</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>85.48776958657824</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.06483528720045</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>148.9686900865113</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>84.49183572822007</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>222.4997066824609</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>41.51881791199136</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>131.529205243229</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>45.8471620423332</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>90.08485914930579</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,7 +24414,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>25.11317782796158</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24429,7 +24429,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.06483528720071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,7 +24612,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>85.25890801741529</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24621,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>82.53296634615802</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24852,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.03170243858888</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>170.535215949723</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>37.84312462897432</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>143.2832668079636</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>45.84716204233405</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>21.30520108346067</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>189.2908205726278</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25605,19 +25605,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>133.7430375082084</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>9.893286039081147</v>
       </c>
     </row>
     <row r="41">
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>223.0676163851326</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.11538028956426</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>181.0244246222282</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0.756449042671278</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>54.0659746181455</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,10 +26037,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>190.8842666599683</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>79.63656955215879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>550577.2807468425</v>
+        <v>550577.2807468426</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>550577.2807468426</v>
+        <v>550577.2807468425</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550577.2807468426</v>
+        <v>550577.2807468425</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550577.2807468426</v>
+        <v>550577.2807468425</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>550577.2807468425</v>
+        <v>550577.2807468426</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>550577.2807468426</v>
+        <v>550577.2807468425</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537511.8970071076</v>
+        <v>537511.8970071079</v>
       </c>
       <c r="C2" t="n">
         <v>537511.8970071077</v>
       </c>
       <c r="D2" t="n">
-        <v>537511.8970071077</v>
+        <v>537511.8970071079</v>
       </c>
       <c r="E2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329049</v>
       </c>
       <c r="F2" t="n">
         <v>477920.3014329047</v>
       </c>
       <c r="G2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.301432905</v>
       </c>
       <c r="H2" t="n">
         <v>477920.3014329047</v>
       </c>
       <c r="I2" t="n">
-        <v>477920.3014329048</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="J2" t="n">
         <v>477920.3014329047</v>
       </c>
       <c r="K2" t="n">
-        <v>477920.3014329049</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="L2" t="n">
+        <v>477920.3014329046</v>
+      </c>
+      <c r="M2" t="n">
         <v>477920.3014329047</v>
       </c>
-      <c r="M2" t="n">
-        <v>477920.3014329046</v>
-      </c>
       <c r="N2" t="n">
-        <v>477920.3014329046</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="O2" t="n">
+        <v>477920.3014329047</v>
+      </c>
+      <c r="P2" t="n">
         <v>477920.3014329048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>477920.3014329047</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972368</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132412.0883153999</v>
+        <v>132412.0883154001</v>
       </c>
       <c r="C6" t="n">
-        <v>307367.5982085142</v>
+        <v>307367.5982085141</v>
       </c>
       <c r="D6" t="n">
-        <v>194818.8882321153</v>
+        <v>194818.8882321154</v>
       </c>
       <c r="E6" t="n">
-        <v>364620.7632700332</v>
+        <v>364440.1826773843</v>
       </c>
       <c r="F6" t="n">
-        <v>391589.7174509674</v>
+        <v>391409.1368583184</v>
       </c>
       <c r="G6" t="n">
-        <v>391589.7174509674</v>
+        <v>391409.1368583186</v>
       </c>
       <c r="H6" t="n">
-        <v>391589.7174509674</v>
+        <v>391409.1368583184</v>
       </c>
       <c r="I6" t="n">
-        <v>391589.7174509675</v>
+        <v>391409.1368583183</v>
       </c>
       <c r="J6" t="n">
-        <v>254994.9166450724</v>
+        <v>254814.3360524233</v>
       </c>
       <c r="K6" t="n">
-        <v>391589.7174509676</v>
+        <v>391409.1368583183</v>
       </c>
       <c r="L6" t="n">
-        <v>251590.4065862147</v>
+        <v>251409.8259935655</v>
       </c>
       <c r="M6" t="n">
-        <v>369080.4526769199</v>
+        <v>368899.8720842709</v>
       </c>
       <c r="N6" t="n">
-        <v>391589.7174509673</v>
+        <v>391409.1368583183</v>
       </c>
       <c r="O6" t="n">
-        <v>391589.7174509676</v>
+        <v>391409.1368583184</v>
       </c>
       <c r="P6" t="n">
-        <v>391589.7174509674</v>
+        <v>391409.1368583184</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>318.4470846671338</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>322.9219406037499</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27545,7 +27545,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>86.11522480836707</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>129.3301592135993</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>351.3863286294683</v>
       </c>
       <c r="F5" t="n">
-        <v>18.19522188379989</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>96.81981767500346</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,10 +27830,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>119.4538361454891</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.0160384451232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>393.0160384451233</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>10.70163254908653</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>338.0047407346339</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>400.9092955204429</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.70163254908628</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>474.8949538093259</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>700.8590857136259</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>264.4752373870339</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>593.9528840943861</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629447</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>151.2227878040968</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.15638339129857</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.19067509569769</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>69.15948384215704</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>176.8444622371211</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
